--- a/restest.xlsx
+++ b/restest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/620894976faab4cb/Рабочий стол/ЛиОАвИЗ/laba2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{CDDD2BED-0BC4-4BDB-8CA1-6EF6000508F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E4E811-9961-4791-82D1-9BE9A2CC4CFC}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{CDDD2BED-0BC4-4BDB-8CA1-6EF6000508F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B772355-5D51-4FF2-8BFA-893798AEA153}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB880B94-D189-494F-90EB-854E8CFAEFE3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Количество элементов</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Быстрая сортировка</t>
+  </si>
+  <si>
+    <t>qsort</t>
   </si>
 </sst>
 </file>
@@ -121,29 +124,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1530,6 +1523,694 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>qsort</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Рандомный массив</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>50000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>200000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>400000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1000000</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Алгоритм Шелла'!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FAE-4057-A1A8-B6CE04F13D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Возрастающий массив</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>50000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>200000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>400000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1000000</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Алгоритм Шелла'!$Q$4:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FAE-4057-A1A8-B6CE04F13D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Убывающий массив</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>50000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>200000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>400000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1000000</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Алгоритм Шелла'!$R$4:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FAE-4057-A1A8-B6CE04F13D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Алгоритм Шелла'!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Возрастающий, а затем убывающий массив</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>50000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>200000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>400000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1000000</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Алгоритм Шелла'!$S$4:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7FAE-4057-A1A8-B6CE04F13D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1611935727"/>
+        <c:axId val="1611934895"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1611935727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Количество элементов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611934895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1611934895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Время выполнения сортировки в секундах </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611935727"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1610,6 +2291,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2127,6 +2848,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2713,6 +3950,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8164</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B204DCB0-714D-4E05-8221-16B7CB163EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3018,10 +4293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4849C7-399F-438E-972B-F8A87BFC068F}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3036,74 +4311,105 @@
     <col min="10" max="10" width="21.5546875" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" customWidth="1"/>
     <col min="12" max="12" width="40.44140625" customWidth="1"/>
+    <col min="15" max="15" width="22.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" customWidth="1"/>
+    <col min="19" max="19" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>50000</v>
       </c>
@@ -3120,23 +4426,38 @@
         <v>0.186</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="H4" s="7">
+      <c r="H4" s="1">
         <v>50000</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="1">
         <v>2E-3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="1">
         <v>2E-3</v>
       </c>
+      <c r="O4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>100000</v>
       </c>
@@ -3153,23 +4474,38 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="H5" s="7">
+      <c r="H5" s="1">
         <v>100000</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="1">
         <v>2E-3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="O5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>200000</v>
       </c>
@@ -3186,23 +4522,38 @@
         <v>2.6760000000000002</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>200000</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="O6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.13600000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>400000</v>
       </c>
@@ -3219,23 +4570,38 @@
         <v>10.538</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="H7" s="7">
+      <c r="H7" s="1">
         <v>400000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="O7" s="1">
+        <v>400000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.36199999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000000</v>
       </c>
@@ -3251,196 +4617,45 @@
       <c r="E8" s="1">
         <v>67.561999999999998</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="1">
         <v>1000000</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="O8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.0469999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="P2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
